--- a/dashboard_must_webiste/arquivos/anotacoes_extraidas/saida_anotacoes_CUST-2002-119-115 - NEOENERGIA ELEKTRO.xlsx
+++ b/dashboard_must_webiste/arquivos/anotacoes_extraidas/saida_anotacoes_CUST-2002-119-115 - NEOENERGIA ELEKTRO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
   <si>
     <t>Num_Tabela</t>
   </si>
@@ -34,48 +34,6 @@
     <t>01</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t xml:space="preserve">SPARN -138  </t>
   </si>
   <si>
@@ -247,75 +205,6 @@
     <t>SPZARP138 -A ZARAPLAST</t>
   </si>
   <si>
-    <t>SPMOM1138   MOGI MIRIM 1 - 138</t>
-  </si>
-  <si>
-    <t>SPRUR -138-A RUY</t>
-  </si>
-  <si>
-    <t>SPSAG1138 -A STA GERTRUDES - 138</t>
-  </si>
-  <si>
-    <t>SPUFBH138 -A COL BOA</t>
-  </si>
-  <si>
-    <t>SPJLS -138   JALES - 138</t>
-  </si>
-  <si>
-    <t>SPKNA -138-A</t>
-  </si>
-  <si>
-    <t>SPLIM4138   LIMEIRA 4 - 138</t>
-  </si>
-  <si>
-    <t>SPVLG -138-A</t>
-  </si>
-  <si>
-    <t>SPITV3138 -A ITAPEVA</t>
-  </si>
-  <si>
-    <t>SPITV -138-A</t>
-  </si>
-  <si>
-    <t>SPMAI -138   MAIRIPORA - 138</t>
-  </si>
-  <si>
-    <t>SPMAI2138 -A MAIRIPORA</t>
-  </si>
-  <si>
-    <t>SPILS -138   ILHA SOLTEIRA - 138</t>
-  </si>
-  <si>
-    <t>SPSEL2138 -A SELVIRIA</t>
-  </si>
-  <si>
-    <t>SPETDO138 -A ESTRELA</t>
-  </si>
-  <si>
-    <t>SPCRFT138 -A</t>
-  </si>
-  <si>
-    <t>SPFER -138   FERNANDOPOLIS - 138</t>
-  </si>
-  <si>
-    <t>SPVOT3138 -A VOTUPORANGA</t>
-  </si>
-  <si>
-    <t>SPPER -138   PERUIBE - 138</t>
-  </si>
-  <si>
-    <t>SPGLP -138-A</t>
-  </si>
-  <si>
-    <t>SPVOT1138   VOTUPORANGA 1 - 138</t>
-  </si>
-  <si>
-    <t>SPCRD -138</t>
-  </si>
-  <si>
-    <t>SPRIC1138  RIO CLARO -I - 138</t>
-  </si>
-  <si>
     <t>A.NOGUEIRA - 138 kV (A)</t>
   </si>
   <si>
@@ -358,42 +247,6 @@
     <t>VERALLIA138kVA</t>
   </si>
   <si>
-    <t>ROCHA138kVA</t>
-  </si>
-  <si>
-    <t>HORA138kVA</t>
-  </si>
-  <si>
-    <t>KARINA138kVA</t>
-  </si>
-  <si>
-    <t>VILLAGRES138kVA</t>
-  </si>
-  <si>
-    <t>3138kVA</t>
-  </si>
-  <si>
-    <t>ITAPEVA138kVA</t>
-  </si>
-  <si>
-    <t>D'OESTE138kVA</t>
-  </si>
-  <si>
-    <t>CRISTOFOLETTI138kVA</t>
-  </si>
-  <si>
-    <t>GLP138kVA</t>
-  </si>
-  <si>
-    <t>CORDEIRÓPOLIS  - 138 Kv (A)</t>
-  </si>
-  <si>
-    <t>CORDEIRÓPOLIS  - 138 kV (A)</t>
-  </si>
-  <si>
-    <t>Kv (A)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -542,48 +395,6 @@
   </si>
   <si>
     <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, a não ocorrência de simultaneidade dos valores  de confiabilidade informados pela Elektro na região Atibaia – Mogi e a implementação de um Sistema Especial de Proteção (SEP) para a abertura do barramento de 138 kV da SE São João da Boa Vista II devido a violação da capacidade de carregamento nas LTs 138 kV Poços de Caldas - São João da Boa Vista II C1/C2 e da LT 138 kV São João da Boa Vista II - Mogi Guaçu C1/C2, em condição normal de operação.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão MOGI MIRIM 1 138 kV, a USUÁRIA solicitou os valores de 49,800 MW, fora ponta, para todo o horizonte c ontratual, os quais ficaram limitados a 48,600 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento da L T 138 kV Poços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA.</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA na região.</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST solicitados fica condicionado à manutenção de fator de potência mínimo de 0,95.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão JALES 138 kV, a USUÁRIA informou os valores de 98,000 e 107,000 MW, ponta e fora ponta, para todo hor izonte contratual, os quais foram limitados a 84,000 e 90,000 MW, respectivamente, condicionado à manutenção de fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração na LT 138 kV Boa Hora – Jales e/ou no transformador 440/138 kV da SE Água Vermelha, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão LIMEIRA 4 138 kV, a USUÁRIA solicitou os valores de 81,000 MW, fora ponta, para todo o horizonte cont ratual, os quais ficaram limitados a 78,500 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento da LT 138 kV P oços de Caldas – São João da Boa Vista 2 C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão RIO CLARO 1 138 kV, a USUÁRIA informou os valores de 45,000 e 45,500 MW, ponta e fora ponta, para tod o horizonte contratual, os quais foram limitados a 43,500 e 44,000 MW, respectivamente, condicionado a um fator de potência mínimo de 0,95 e a não viola ção da capacidade de carregamento de longa duração na LT 138 kV Ribeirão Preto – Porto Ferreira C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA.</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e à não violação da capacidade de carregamento de longa duração na LT 138 kV</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela Usuária, e a não violação da capacidade de carregamento de longa duração na LT 138 kV Cerquilho III - Itapetininga II e na LT 138 kV Embu Guaçu - Mongaguá C1/C2.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão Atibaia 3 138 kV, a USUÁRIA informou o valor de 32,800 MW, fora ponta no ano de 2025, o qual foi limi tado a 28,000 MW, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 138 kV Poços de C aldas – São João da Boa Vista 2</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento de longa duração da LT 440 kV Bom Jardim - Fernão Dias e da LT 230 kV Taubaté - São José dos Campos, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA nesse ponto de contratação.</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST fica condicionado a um fator de potência mínimo de 0,95, desconsiderando a parcela de confiabilidade de clarada pela USUÁRIA, devido a possibilidade de violação da capacidade de carregamento do TR 440/138 kV da SE Bom Jardim e do TR 345/138 kV da SE Atibaia 2.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão PERUIBE 138 kV, a USUÁRIA informou os valores de 45,000 e 46,500 MW, ponta e fora ponta, os quais for am limitados a 43,900 e 45,000 MW, respectivamente, condicionado a um fator de potência mínimo de 0,95 e a não violação da capacidade de carregamento  de longa duração na LT 138 kV Embu Guaçu – Mongaguá C1/C2, desconsiderando a parcela de confiabilidade declarada pela USUÁRIA.</t>
-  </si>
-  <si>
-    <t>Para o ponto de conexão GLP 138 kV a USUÁRIA solicitou os valores de 30,000 MW, ponta e fora ponta, os quais foram limitados a 3,000 MW, ponta e fora ponta, condicionado a um fator de potência mínimo de 0,95 indutivo, desconsiderando a parcela de confiabilidade declarada pela distr ibuidora ne região, devido a possibilidade de violação da capacidade de carregamento da LT 138 kV Mairiporã - Termoverde C1, no trecho entre a SE Mairiporã e a derivação Francisco Morato, na LT 138 kV Mairiporã - Água Azul, na transformação 440/138 kV da SE Bom Jardim e na Transformação 345/138 kV da SE Atibaia II.</t>
-  </si>
-  <si>
-    <t>O atendimento ao MUST apresenta a ressalva de manutenção de fator de potência mínimo de 0,95 indutivo, desconsiderando a parc ela de confiabilidade informada pela Elektro na região.</t>
   </si>
 </sst>
 </file>
@@ -941,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -969,16 +780,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -986,16 +797,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1003,16 +814,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1020,16 +831,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1037,16 +848,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1054,16 +865,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1071,16 +882,16 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1088,16 +899,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1105,16 +916,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1122,16 +933,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1139,16 +950,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1156,16 +967,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1173,16 +984,16 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1190,16 +1001,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1207,16 +1018,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1224,16 +1035,16 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1241,16 +1052,16 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1258,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1275,16 +1086,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1292,16 +1103,16 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1309,16 +1120,16 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1326,16 +1137,16 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E23" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1343,16 +1154,16 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E24" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1360,16 +1171,16 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1377,16 +1188,16 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1394,16 +1205,16 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D27" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1411,16 +1222,16 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1428,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1445,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D30" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1462,16 +1273,16 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1479,16 +1290,16 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1496,16 +1307,16 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1513,16 +1324,16 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E34" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1530,16 +1341,16 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1547,16 +1358,16 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1564,16 +1375,16 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1581,16 +1392,16 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E38" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1598,16 +1409,16 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1615,16 +1426,16 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1632,16 +1443,16 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1649,16 +1460,16 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1666,16 +1477,16 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1683,16 +1494,16 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
         <v>101</v>
       </c>
-      <c r="D44" t="s">
-        <v>150</v>
-      </c>
       <c r="E44" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1700,16 +1511,16 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E45" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1717,16 +1528,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1734,16 +1545,16 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1751,16 +1562,16 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E48" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1768,16 +1579,16 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E49" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1785,16 +1596,16 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1802,16 +1613,16 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1819,16 +1630,16 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1836,16 +1647,16 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1853,16 +1664,16 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="D54" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1870,16 +1681,16 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1887,16 +1698,16 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1904,16 +1715,16 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1921,16 +1732,16 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1938,16 +1749,16 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C59" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1955,16 +1766,16 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C60" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1972,16 +1783,16 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1989,16 +1800,16 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="E62" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2006,16 +1817,16 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2023,16 +1834,16 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2040,16 +1851,16 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2057,16 +1868,16 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2074,16 +1885,16 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C67" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2091,16 +1902,16 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2108,16 +1919,16 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2125,16 +1936,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2142,16 +1953,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E71" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2159,16 +1970,16 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2176,16 +1987,16 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2193,16 +2004,16 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2210,16 +2021,16 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C75" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2227,16 +2038,16 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C76" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D76" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2244,764 +2055,16 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C77" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" t="s">
-        <v>101</v>
-      </c>
-      <c r="D78" t="s">
-        <v>142</v>
-      </c>
-      <c r="E78" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" t="s">
-        <v>114</v>
-      </c>
-      <c r="D79" t="s">
-        <v>142</v>
-      </c>
-      <c r="E79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D80" t="s">
-        <v>142</v>
-      </c>
-      <c r="E80" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" t="s">
-        <v>115</v>
-      </c>
-      <c r="D81" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" t="s">
-        <v>142</v>
-      </c>
-      <c r="E82" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" t="s">
-        <v>142</v>
-      </c>
-      <c r="E83" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>116</v>
-      </c>
-      <c r="D84" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" t="s">
-        <v>101</v>
-      </c>
-      <c r="D85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C86" t="s">
-        <v>101</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>11</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" t="s">
-        <v>142</v>
-      </c>
-      <c r="E87" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" t="s">
-        <v>85</v>
-      </c>
-      <c r="C88" t="s">
-        <v>118</v>
-      </c>
-      <c r="D88" t="s">
-        <v>142</v>
-      </c>
-      <c r="E88" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" t="s">
-        <v>12</v>
-      </c>
-      <c r="B89" t="s">
-        <v>86</v>
-      </c>
-      <c r="C89" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" t="s">
-        <v>13</v>
-      </c>
-      <c r="B90" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" t="s">
-        <v>87</v>
-      </c>
-      <c r="C91" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B92" t="s">
-        <v>88</v>
-      </c>
-      <c r="C92" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" t="s">
-        <v>101</v>
-      </c>
-      <c r="D93" t="s">
-        <v>142</v>
-      </c>
-      <c r="E93" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94" t="s">
-        <v>142</v>
-      </c>
-      <c r="E94" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>14</v>
-      </c>
-      <c r="B95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C95" t="s">
-        <v>103</v>
-      </c>
-      <c r="D95" t="s">
-        <v>126</v>
-      </c>
-      <c r="E95" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" t="s">
-        <v>14</v>
-      </c>
-      <c r="B96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C96" t="s">
-        <v>120</v>
-      </c>
-      <c r="D96" t="s">
-        <v>142</v>
-      </c>
-      <c r="E96" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>14</v>
-      </c>
-      <c r="B97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D97" t="s">
-        <v>142</v>
-      </c>
-      <c r="E97" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>14</v>
-      </c>
-      <c r="B98" t="s">
-        <v>92</v>
-      </c>
-      <c r="C98" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" t="s">
-        <v>142</v>
-      </c>
-      <c r="E98" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>14</v>
-      </c>
-      <c r="B99" t="s">
-        <v>93</v>
-      </c>
-      <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>14</v>
-      </c>
-      <c r="B100" t="s">
-        <v>93</v>
-      </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D100" t="s">
-        <v>142</v>
-      </c>
-      <c r="E100" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" t="s">
-        <v>93</v>
-      </c>
-      <c r="C101" t="s">
-        <v>101</v>
-      </c>
-      <c r="D101" t="s">
-        <v>126</v>
-      </c>
-      <c r="E101" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>14</v>
-      </c>
-      <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" t="s">
-        <v>101</v>
-      </c>
-      <c r="D102" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>14</v>
-      </c>
-      <c r="B103" t="s">
-        <v>93</v>
-      </c>
-      <c r="C103" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E103" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" t="s">
-        <v>118</v>
-      </c>
-      <c r="D104" t="s">
-        <v>142</v>
-      </c>
-      <c r="E104" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>14</v>
-      </c>
-      <c r="B105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" t="s">
-        <v>101</v>
-      </c>
-      <c r="D105" t="s">
-        <v>142</v>
-      </c>
-      <c r="E105" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" t="s">
-        <v>101</v>
-      </c>
-      <c r="D106" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>14</v>
-      </c>
-      <c r="B107" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" t="s">
-        <v>101</v>
-      </c>
-      <c r="D107" t="s">
-        <v>142</v>
-      </c>
-      <c r="E107" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" t="s">
-        <v>101</v>
-      </c>
-      <c r="D108" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" t="s">
-        <v>15</v>
-      </c>
-      <c r="B109" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" t="s">
         <v>122</v>
-      </c>
-      <c r="D109" t="s">
-        <v>142</v>
-      </c>
-      <c r="E109" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" t="s">
-        <v>16</v>
-      </c>
-      <c r="B110" t="s">
-        <v>96</v>
-      </c>
-      <c r="C110" t="s">
-        <v>122</v>
-      </c>
-      <c r="D110" t="s">
-        <v>142</v>
-      </c>
-      <c r="E110" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" t="s">
-        <v>97</v>
-      </c>
-      <c r="C111" t="s">
-        <v>101</v>
-      </c>
-      <c r="D111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E111" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" t="s">
-        <v>16</v>
-      </c>
-      <c r="B112" t="s">
-        <v>97</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" t="s">
-        <v>142</v>
-      </c>
-      <c r="E112" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" t="s">
-        <v>16</v>
-      </c>
-      <c r="B113" t="s">
-        <v>97</v>
-      </c>
-      <c r="C113" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" t="s">
-        <v>126</v>
-      </c>
-      <c r="E113" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" t="s">
-        <v>97</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" t="s">
-        <v>142</v>
-      </c>
-      <c r="E114" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" t="s">
-        <v>16</v>
-      </c>
-      <c r="B115" t="s">
-        <v>97</v>
-      </c>
-      <c r="C115" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" t="s">
-        <v>126</v>
-      </c>
-      <c r="E115" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" t="s">
-        <v>37</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" t="s">
-        <v>142</v>
-      </c>
-      <c r="E116" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" t="s">
-        <v>37</v>
-      </c>
-      <c r="C117" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" t="s">
-        <v>142</v>
-      </c>
-      <c r="E117" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>18</v>
-      </c>
-      <c r="B118" t="s">
-        <v>98</v>
-      </c>
-      <c r="C118" t="s">
-        <v>123</v>
-      </c>
-      <c r="D118" t="s">
-        <v>142</v>
-      </c>
-      <c r="E118" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>18</v>
-      </c>
-      <c r="B119" t="s">
-        <v>98</v>
-      </c>
-      <c r="C119" t="s">
-        <v>124</v>
-      </c>
-      <c r="D119" t="s">
-        <v>142</v>
-      </c>
-      <c r="E119" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B120" t="s">
-        <v>99</v>
-      </c>
-      <c r="C120" t="s">
-        <v>125</v>
-      </c>
-      <c r="D120" t="s">
-        <v>142</v>
-      </c>
-      <c r="E120" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>19</v>
-      </c>
-      <c r="B121" t="s">
-        <v>99</v>
-      </c>
-      <c r="C121" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" t="s">
-        <v>142</v>
-      </c>
-      <c r="E121" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
